--- a/biology/Médecine/1671_en_santé_et_médecine/1671_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1671_en_santé_et_médecine/1671_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1671_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1671_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1671 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1671_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1671_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Molière est essoufflé en jouant les Fourberies de Scapin et est régulièrement pris de toux convulsives[1].
-A Lille, le premier hôpital militaire fixe est créé pour soulager l’Hospice Comtesse[2].
-A Paris, Guy-Crescent Fagon est nommé Professeur de botanique et de chimie au Jardin royal des plantes médicinales[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Molière est essoufflé en jouant les Fourberies de Scapin et est régulièrement pris de toux convulsives.
+A Lille, le premier hôpital militaire fixe est créé pour soulager l’Hospice Comtesse.
+A Paris, Guy-Crescent Fagon est nommé Professeur de botanique et de chimie au Jardin royal des plantes médicinales.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1671_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1671_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sébastien Matte La Faveur (1626-1714), apothicaire et chimiste, publie Pratique de Chymie à  Montpellier[4].
-Les Secrets de la médecine des Chinois, rédigé à Canton par un jésuite anonyme, est imprimé à Grenoble[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sébastien Matte La Faveur (1626-1714), apothicaire et chimiste, publie Pratique de Chymie à  Montpellier.
+Les Secrets de la médecine des Chinois, rédigé à Canton par un jésuite anonyme, est imprimé à Grenoble.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1671_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1671_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2 septembre : Pierre-Jean-Baptiste Chomel (mort en 1740), médecin et botaniste français[6].
-8 septembre : Pierre Polinière (mort en 1734), médecin, mathématicien et physicien français[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 septembre : Pierre-Jean-Baptiste Chomel (mort en 1740), médecin et botaniste français.
+8 septembre : Pierre Polinière (mort en 1734), médecin, mathématicien et physicien français.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1671_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1671_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6 septembre : Denis Joncquet (né en 1600), médecin et botaniste français[8].
-1er novembre : Pierre Borel (né vers 1620), médecin, botaniste et érudit français[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 septembre : Denis Joncquet (né en 1600), médecin et botaniste français.
+1er novembre : Pierre Borel (né vers 1620), médecin, botaniste et érudit français.</t>
         </is>
       </c>
     </row>
